--- a/Chapter_04/Chapter_4_Table_S4.4.xlsx
+++ b/Chapter_04/Chapter_4_Table_S4.4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crtuser\OneDrive - National University of Ireland, Galway\Desktop\Dropbox\@John O'Grady\@Thesis\Supplementary\Chapter_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F14052E-422F-4221-A863-01DBEF0DB13E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F765E837-F4AC-4336-9AC2-7C1890EE97DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49170" yWindow="-1830" windowWidth="29040" windowHeight="15720" xr2:uid="{FA9AC2DD-DDB8-494D-A6D7-2B3976F95B10}"/>
+    <workbookView xWindow="20370" yWindow="-1815" windowWidth="29040" windowHeight="15720" xr2:uid="{B5F6AA47-D9C5-4A87-B93C-A06AA6D4571D}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter_4_Table_S4.4" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="95">
   <si>
     <r>
       <rPr>
@@ -94,7 +94,7 @@
     <t>Control</t>
   </si>
   <si>
-    <t>O'Grady et al., (2025)</t>
+    <t>OGR25-BTB</t>
   </si>
   <si>
     <t>Natural</t>
@@ -229,7 +229,7 @@
     <t>846_Control_W0</t>
   </si>
   <si>
-    <t>Wiarda et al., (2020)</t>
+    <t>WIA20-BTB</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -256,13 +256,10 @@
     <t>849_Control_W10</t>
   </si>
   <si>
-    <t>Wiarda et al., (2020</t>
-  </si>
-  <si>
     <t>A6635_W-1</t>
   </si>
   <si>
-    <t>McLoughlin et al., (2021)</t>
+    <t>MCL21-BTB</t>
   </si>
   <si>
     <t>A6635</t>
@@ -328,7 +325,7 @@
     <t>A017_CON</t>
   </si>
   <si>
-    <t>McLoughlin et al., (2014)</t>
+    <t>MCL14-BTB</t>
   </si>
   <si>
     <t>F</t>
@@ -466,20 +463,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5AEC2072-5A77-42A1-AE7F-1AF61A78D311}" name="Table4" displayName="Table4" ref="A2:I70" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AC26ACEC-8788-4A9C-85A7-51CAA8CD3DCA}" name="Table4" displayName="Table4" ref="A2:I70" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A2:I70" xr:uid="{519D4048-DBE3-416F-906B-7A43553CBCC0}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{6DC4DF5D-2531-403C-AFD8-5FEF04922B52}" name="Sample" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{1CFEE672-B2B4-4CA9-8DA0-E297FF3C1C77}" name="Condition" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{C10C9A8C-2FBE-499A-825E-F4BBC0FB5802}" name="Age (months)" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{57A5EEFC-9109-4693-8EC5-11A811FE7C10}" name="Study" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{B7066630-386A-447B-8D96-A1B94BDA0283}" name="Infection_administration" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{DBEA3EB6-05D1-4F3A-B6E0-4BACBF9E4229}" name="Sex" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{F8C4F801-6C9B-4E1B-ACAE-DB37EA3655FD}" name="Location" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{74F24099-E1B4-4BFD-B113-801CAA5F4F46}" name="Tissue" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{FDB9C9E7-AA62-460E-A4BC-1E0960C55A63}" name="Animal_Code" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D12216D3-92DA-493D-85BE-2096CFB13365}" name="Sample" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{C557DAF7-D1EB-4D7B-9A95-46C78536AFC3}" name="Condition" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{AB990611-09AD-4233-B812-2B38A18E11FA}" name="Age (months)" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{AF6FC23E-1DCC-4762-AF35-6A506A95D0CB}" name="Study" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{B38796DF-0A63-4A66-9846-2B6562FE7186}" name="Infection_administration" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{FA7313DE-EB67-4D9F-AE94-FC98934AE7AF}" name="Sex" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{95F9CC0A-A934-4B30-831D-B0E53524E353}" name="Location" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{8D481758-DB51-4E27-B30D-2550B3231CC0}" name="Tissue" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{72A3E41B-E711-4839-9503-EE8CC8690805}" name="Animal_Code" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -799,7 +796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A93AEB-DCCD-4F7F-807B-1B6394841D24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0ADD65-20BB-4099-97C4-52AAC74D026A}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:K70"/>
   <sheetViews>
@@ -835,7 +832,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2151,7 +2148,7 @@
         <v>7</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>58</v>
@@ -2171,7 +2168,7 @@
     </row>
     <row r="48" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>11</v>
@@ -2180,7 +2177,7 @@
         <v>5</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>58</v>
@@ -2195,12 +2192,12 @@
         <v>16</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>11</v>
@@ -2209,7 +2206,7 @@
         <v>5</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>58</v>
@@ -2224,12 +2221,12 @@
         <v>16</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>11</v>
@@ -2238,7 +2235,7 @@
         <v>5</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>58</v>
@@ -2253,12 +2250,12 @@
         <v>16</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>39</v>
@@ -2267,7 +2264,7 @@
         <v>5</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>58</v>
@@ -2282,12 +2279,12 @@
         <v>16</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>39</v>
@@ -2296,7 +2293,7 @@
         <v>5</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>58</v>
@@ -2311,12 +2308,12 @@
         <v>16</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>39</v>
@@ -2325,7 +2322,7 @@
         <v>5</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>58</v>
@@ -2340,12 +2337,12 @@
         <v>16</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>39</v>
@@ -2354,7 +2351,7 @@
         <v>6</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>58</v>
@@ -2369,12 +2366,12 @@
         <v>16</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>39</v>
@@ -2383,7 +2380,7 @@
         <v>6</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>58</v>
@@ -2398,12 +2395,12 @@
         <v>16</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>39</v>
@@ -2412,7 +2409,7 @@
         <v>6</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>58</v>
@@ -2427,12 +2424,12 @@
         <v>16</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>39</v>
@@ -2441,7 +2438,7 @@
         <v>7</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>58</v>
@@ -2456,12 +2453,12 @@
         <v>16</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>39</v>
@@ -2470,7 +2467,7 @@
         <v>7</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>58</v>
@@ -2485,12 +2482,12 @@
         <v>16</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>39</v>
@@ -2499,7 +2496,7 @@
         <v>7</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>58</v>
@@ -2514,12 +2511,12 @@
         <v>16</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>39</v>
@@ -2528,7 +2525,7 @@
         <v>8</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>58</v>
@@ -2543,12 +2540,12 @@
         <v>16</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>39</v>
@@ -2557,7 +2554,7 @@
         <v>8</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>58</v>
@@ -2572,12 +2569,12 @@
         <v>16</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>39</v>
@@ -2586,7 +2583,7 @@
         <v>8</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>58</v>
@@ -2601,12 +2598,12 @@
         <v>16</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>39</v>
@@ -2615,7 +2612,7 @@
         <v>8</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>58</v>
@@ -2630,12 +2627,12 @@
         <v>16</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>39</v>
@@ -2644,7 +2641,7 @@
         <v>8</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>58</v>
@@ -2659,12 +2656,12 @@
         <v>16</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>39</v>
@@ -2673,7 +2670,7 @@
         <v>8</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>58</v>
@@ -2688,27 +2685,27 @@
         <v>16</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="5">
+        <v>12</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" s="5">
-        <v>12</v>
-      </c>
-      <c r="D66" s="4" t="s">
+      <c r="E66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>15</v>
@@ -2717,12 +2714,12 @@
         <v>60</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>11</v>
@@ -2731,13 +2728,13 @@
         <v>12</v>
       </c>
       <c r="D67" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>15</v>
@@ -2746,12 +2743,12 @@
         <v>60</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>11</v>
@@ -2760,13 +2757,13 @@
         <v>12</v>
       </c>
       <c r="D68" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>15</v>
@@ -2775,12 +2772,12 @@
         <v>60</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>39</v>
@@ -2789,13 +2786,13 @@
         <v>12</v>
       </c>
       <c r="D69" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>15</v>
@@ -2804,12 +2801,12 @@
         <v>60</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>39</v>
@@ -2818,13 +2815,13 @@
         <v>12</v>
       </c>
       <c r="D70" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>15</v>
@@ -2833,7 +2830,7 @@
         <v>60</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
